--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>700586.0290024509</v>
+        <v>722744.94380681</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843295</v>
+        <v>2305207.638772119</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6411320.038997424</v>
+        <v>6942176.066904963</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>60.29416313398352</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>328.492430313826</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -817,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>137.2470510215432</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>109.1129008730883</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>269.9272239875384</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2499821390707211</v>
+        <v>190.6621226277881</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6626036182023693</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1569564646393</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.40849510950501</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>260.1675526731433</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,10 +3009,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555191</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3080,7 +3082,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>82.62483121292129</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.77676262085224</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>327.7048106991456</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225787</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>136.0477039079136</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>198.992624923879</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5168019860619</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.140109257064</v>
+        <v>1869.900138843044</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.140109257064</v>
+        <v>1431.757666026468</v>
       </c>
       <c r="D2" t="n">
-        <v>1173.140109257064</v>
+        <v>995.8478812009121</v>
       </c>
       <c r="E2" t="n">
-        <v>1173.140109257064</v>
+        <v>562.0731363592072</v>
       </c>
       <c r="F2" t="n">
-        <v>745.2726796662719</v>
+        <v>134.2057067684149</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>134.2057067684149</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>508.557199136501</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>508.557199136501</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.40648323603</v>
       </c>
       <c r="U2" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="V2" t="n">
-        <v>2405.424150967066</v>
+        <v>3102.184180553047</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.5686963781</v>
+        <v>2697.32872596408</v>
       </c>
       <c r="X2" t="n">
-        <v>1581.426232957411</v>
+        <v>2278.186262543391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.140109257064</v>
+        <v>1869.900138843044</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.057567691639</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001788</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.00656461795</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="J3" t="n">
-        <v>379.3030186989643</v>
+        <v>2352.507820827016</v>
       </c>
       <c r="K3" t="n">
-        <v>1056.76860364177</v>
+        <v>2352.507820827016</v>
       </c>
       <c r="L3" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827016</v>
       </c>
       <c r="M3" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827016</v>
       </c>
       <c r="N3" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827016</v>
       </c>
       <c r="O3" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827016</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>3547.952806084815</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627538</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958108</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020107</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>764.2385311503645</v>
+        <v>1757.959811693967</v>
       </c>
       <c r="C4" t="n">
-        <v>591.6768196335894</v>
+        <v>1757.959811693967</v>
       </c>
       <c r="D4" t="n">
-        <v>425.7988268351121</v>
+        <v>1757.959811693967</v>
       </c>
       <c r="E4" t="n">
-        <v>256.0408230858494</v>
+        <v>1619.326426823721</v>
       </c>
       <c r="F4" t="n">
-        <v>79.33376904760556</v>
+        <v>1442.619372785478</v>
       </c>
       <c r="G4" t="n">
-        <v>54.74469373275195</v>
+        <v>1277.028097811305</v>
       </c>
       <c r="H4" t="n">
-        <v>54.74469373275195</v>
+        <v>1137.12592350168</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>1135.045659441045</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>1409.80411401218</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>1828.013995780141</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>2729.756666118699</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>3149.42591534448</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>3496.932809314822</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>3505.884215477151</v>
       </c>
       <c r="T4" t="n">
-        <v>2266.283488512004</v>
+        <v>3260.004769055606</v>
       </c>
       <c r="U4" t="n">
-        <v>1987.850487765109</v>
+        <v>2981.571768308711</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.894979635539</v>
+        <v>2694.616260179142</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.868575221831</v>
+        <v>2422.589855765434</v>
       </c>
       <c r="X4" t="n">
-        <v>1183.476820555243</v>
+        <v>2177.198101098846</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.0571498693516</v>
+        <v>1949.778430412954</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.397515878785</v>
+        <v>1643.92502191807</v>
       </c>
       <c r="C5" t="n">
-        <v>1181.182464491827</v>
+        <v>1643.92502191807</v>
       </c>
       <c r="D5" t="n">
-        <v>745.2726796662719</v>
+        <v>1208.015237092514</v>
       </c>
       <c r="E5" t="n">
-        <v>745.2726796662719</v>
+        <v>774.2404922508094</v>
       </c>
       <c r="F5" t="n">
-        <v>745.2726796662719</v>
+        <v>346.3730626600172</v>
       </c>
       <c r="G5" t="n">
-        <v>343.8748482895357</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="M5" t="n">
-        <v>1844.930551071281</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="N5" t="n">
-        <v>2021.581835925947</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="O5" t="n">
-        <v>2021.581835925947</v>
+        <v>2121.162858634106</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467503</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426097</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.012383954615</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V5" t="n">
-        <v>2115.395433888441</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W5" t="n">
-        <v>1710.539979299475</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.397515878785</v>
+        <v>2478.510716103324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.397515878785</v>
+        <v>2070.224592402978</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764.2385311503645</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C7" t="n">
-        <v>591.6768196335894</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D7" t="n">
-        <v>425.7988268351121</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E7" t="n">
-        <v>256.0408230858494</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>79.33376904760556</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>456.5593144823481</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="C8" t="n">
-        <v>456.5593144823481</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="D8" t="n">
-        <v>456.5593144823481</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="E8" t="n">
-        <v>456.5593144823481</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F8" t="n">
-        <v>456.5593144823481</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L8" t="n">
-        <v>1344.116250983141</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="M8" t="n">
-        <v>1344.116250983141</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="N8" t="n">
-        <v>1344.116250983141</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387163</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T8" t="n">
-        <v>2736.982179426415</v>
+        <v>3472.537581524823</v>
       </c>
       <c r="U8" t="n">
-        <v>2477.759876743432</v>
+        <v>3213.315278841839</v>
       </c>
       <c r="V8" t="n">
-        <v>2115.142926677258</v>
+        <v>2850.698328775666</v>
       </c>
       <c r="W8" t="n">
-        <v>1710.287472088292</v>
+        <v>2445.842874186699</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.145008667602</v>
+        <v>2026.70041076601</v>
       </c>
       <c r="Y8" t="n">
-        <v>882.8588849672559</v>
+        <v>1618.414287065663</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J9" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>764.2385311503645</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C10" t="n">
-        <v>591.6768196335894</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D10" t="n">
-        <v>425.7988268351121</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E10" t="n">
-        <v>256.0408230858494</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>79.33376904760556</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2266.283488512004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>456.8118216935309</v>
+        <v>2006.541971984243</v>
       </c>
       <c r="C11" t="n">
-        <v>456.8118216935309</v>
+        <v>1568.399499167667</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1425251094881</v>
+        <v>1132.489714342111</v>
       </c>
       <c r="E11" t="n">
-        <v>456.1425251094881</v>
+        <v>698.7149695004064</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>270.8475399096141</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644307</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>489.9993811856698</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="M11" t="n">
-        <v>489.9993811856698</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="N11" t="n">
-        <v>666.6506660403358</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387163</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.012383954615</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V11" t="n">
-        <v>2115.395433888441</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W11" t="n">
-        <v>1710.539979299475</v>
+        <v>3260.270129590187</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.397515878785</v>
+        <v>2841.127666169498</v>
       </c>
       <c r="Y11" t="n">
-        <v>883.1113921784387</v>
+        <v>2432.841542469151</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="L12" t="n">
-        <v>405.3666918594219</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="M12" t="n">
-        <v>405.3666918594219</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="N12" t="n">
-        <v>405.3666918594219</v>
+        <v>980.4210937679236</v>
       </c>
       <c r="O12" t="n">
-        <v>405.3666918594219</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.2726796662719</v>
+        <v>1643.92502191807</v>
       </c>
       <c r="C14" t="n">
-        <v>745.2726796662719</v>
+        <v>1205.782549101493</v>
       </c>
       <c r="D14" t="n">
-        <v>745.2726796662719</v>
+        <v>769.8727642759377</v>
       </c>
       <c r="E14" t="n">
-        <v>745.2726796662719</v>
+        <v>336.0980194342329</v>
       </c>
       <c r="F14" t="n">
-        <v>745.2726796662719</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="G14" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>1344.116250983141</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="M14" t="n">
-        <v>1344.116250983141</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="N14" t="n">
-        <v>1344.116250983141</v>
+        <v>1383.198341302822</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387163</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T14" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U14" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V14" t="n">
-        <v>2070.8986356283</v>
+        <v>3302.50863411298</v>
       </c>
       <c r="W14" t="n">
-        <v>1666.043181039333</v>
+        <v>2897.653179524013</v>
       </c>
       <c r="X14" t="n">
-        <v>1246.900717618644</v>
+        <v>2478.510716103324</v>
       </c>
       <c r="Y14" t="n">
-        <v>838.6145939182971</v>
+        <v>2070.224592402978</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J15" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>732.2102786755574</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.675863618363</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,19 +5992,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436392</v>
@@ -6461,52 +6463,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176682</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.233352746989</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580385</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>3575.440564248062</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>3402.878852731287</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>3237.00085993281</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>3067.242856183547</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>2890.535802145303</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>4953.800644836977</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>4707.921198415433</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>4429.488197668538</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>4429.488197668538</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>3994.678853652941</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="32">
@@ -6698,34 +6700,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6780,13 +6782,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
         <v>1107.588885023173</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="38">
@@ -7184,19 +7186,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1036.216302815308</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>863.6545912985331</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>697.7765985000558</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>528.018594750793</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>351.3115407125492</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>185.7202657383769</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2079.569280364165</v>
+        <v>2499.524929691732</v>
       </c>
       <c r="C41" t="n">
-        <v>1641.426807547588</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D41" t="n">
-        <v>1205.517022722033</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E41" t="n">
-        <v>771.7422778803279</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F41" t="n">
-        <v>343.8748482895357</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M41" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N41" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O41" t="n">
-        <v>1513.270315736198</v>
+        <v>2250.026073179019</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="X41" t="n">
-        <v>2174.293283011491</v>
+        <v>3334.110623876987</v>
       </c>
       <c r="Y41" t="n">
-        <v>2174.293283011491</v>
+        <v>2925.82450017664</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404067</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4798998523679</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C43" t="n">
-        <v>750.9181883355928</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D43" t="n">
-        <v>585.0401955371156</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E43" t="n">
-        <v>415.2821917878528</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>238.575137749609</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>72.98386277543668</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.8821968482729</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.404303635552</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.524857214007</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2147.091856467112</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1860.136348337543</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.109943923834</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1342.718189257247</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.298518571355</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>745.6894690391318</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C44" t="n">
-        <v>745.6894690391318</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D44" t="n">
-        <v>745.6894690391318</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E44" t="n">
-        <v>745.6894690391318</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F44" t="n">
-        <v>745.6894690391318</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G44" t="n">
-        <v>344.2916376623957</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358308</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.026073179019</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T44" t="n">
-        <v>2599.812763498291</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U44" t="n">
-        <v>2340.590460815308</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V44" t="n">
-        <v>1977.973510749134</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W44" t="n">
-        <v>1573.118056160168</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X44" t="n">
-        <v>1153.975592739479</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y44" t="n">
-        <v>745.6894690391318</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.057567691638</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001787</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.006564617949</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700345</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>2027.949495860803</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>2352.507820827015</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.213867452739</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>3547.952806084814</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627537</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958107</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020106</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>961.2411428278582</v>
+        <v>1917.20118039597</v>
       </c>
       <c r="C46" t="n">
-        <v>961.2411428278582</v>
+        <v>1744.639468879195</v>
       </c>
       <c r="D46" t="n">
-        <v>795.3631500293809</v>
+        <v>1578.761476080718</v>
       </c>
       <c r="E46" t="n">
-        <v>625.6051462801182</v>
+        <v>1409.003472331455</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>1232.296418293211</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>1066.705143319039</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>1048.465974276355</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>1135.045659441044</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>1409.80411401218</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>1828.013995780141</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>2287.497862961054</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>2729.756666118698</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>3149.42591534448</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>3496.932809314821</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S46" t="n">
-        <v>2671.404303635552</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T46" t="n">
-        <v>2425.524857214007</v>
+        <v>3419.246137757609</v>
       </c>
       <c r="U46" t="n">
-        <v>2147.091856467112</v>
+        <v>3140.813137010714</v>
       </c>
       <c r="V46" t="n">
-        <v>1860.136348337543</v>
+        <v>2853.857628881145</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.109943923834</v>
+        <v>2581.831224467437</v>
       </c>
       <c r="X46" t="n">
-        <v>1342.718189257247</v>
+        <v>2336.439469800849</v>
       </c>
       <c r="Y46" t="n">
-        <v>1115.298518571355</v>
+        <v>2109.019799114958</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>712.6132095083483</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>480.349027940466</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>178.4356412673392</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,10 +9406,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>753.9218057523894</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,7 +10357,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>349.2983329370937</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,22 +22549,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>225.9446898772324</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>30.49835025168568</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.81337269022691</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>324.6481472153226</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>127.4566290754304</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22954,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23030,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23072,7 +23074,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.6165727166211</v>
+        <v>27.20443222790371</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23227,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>430.8880833590975</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>202.2268965983294</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>329.6280796705537</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>163.421202621741</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.78272691405232</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.87832135360793</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>328.2598121592064</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25691,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>87.24622808733676</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142713</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>81.81885094777812</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>201.814275119198</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.38363054573531</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>437982.4301762505</v>
+        <v>529384.1365231383</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>437982.4301762505</v>
+        <v>529384.1365231383</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>437982.4301762505</v>
+        <v>529384.1365231383</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437982.4301762505</v>
+        <v>529384.1365231384</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437982.4301762505</v>
+        <v>529384.1365231384</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672010.8533514004</v>
+        <v>672010.8533514002</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672010.8533514004</v>
+        <v>672010.8533514002</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437982.4301762505</v>
+        <v>529384.1365231384</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437982.4301762504</v>
+        <v>529384.1365231383</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.0049820329</v>
       </c>
       <c r="C2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
       <c r="D2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
       <c r="E2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
       <c r="F2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
       <c r="G2" t="n">
         <v>263428.7920686761</v>
@@ -26350,10 +26352,10 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>171689.4629799993</v>
+        <v>207519.004982033</v>
       </c>
       <c r="P2" t="n">
-        <v>171689.4629799992</v>
+        <v>207519.004982033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527209</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="C4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="D4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142155.9783192328</v>
+        <v>-200107.2956963472</v>
       </c>
       <c r="C6" t="n">
-        <v>87171.59665328023</v>
+        <v>106959.6745903705</v>
       </c>
       <c r="D6" t="n">
-        <v>87171.5966532802</v>
+        <v>106959.6745903705</v>
       </c>
       <c r="E6" t="n">
-        <v>120799.1966532802</v>
+        <v>140587.2745903705</v>
       </c>
       <c r="F6" t="n">
-        <v>120799.1966532802</v>
+        <v>140587.2745903705</v>
       </c>
       <c r="G6" t="n">
-        <v>8672.060093949534</v>
+        <v>72252.30425711887</v>
       </c>
       <c r="H6" t="n">
         <v>171465.3478923909</v>
@@ -26543,13 +26545,13 @@
         <v>171465.3478923909</v>
       </c>
       <c r="J6" t="n">
-        <v>-7579.910195260993</v>
+        <v>-68274.18169435172</v>
       </c>
       <c r="K6" t="n">
+        <v>171465.347892391</v>
+      </c>
+      <c r="L6" t="n">
         <v>171465.3478923909</v>
-      </c>
-      <c r="L6" t="n">
-        <v>171465.347892391</v>
       </c>
       <c r="M6" t="n">
         <v>171465.3478923909</v>
@@ -26558,10 +26560,10 @@
         <v>171465.3478923909</v>
       </c>
       <c r="O6" t="n">
-        <v>120799.1966532803</v>
+        <v>140587.2745903705</v>
       </c>
       <c r="P6" t="n">
-        <v>120799.1966532802</v>
+        <v>140587.2745903705</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447885</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399568</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>712.6132095083483</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632068</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>786.1165328681086</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35015,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>480.349027940466</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>763.7587670651194</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,10 +35649,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>178.4356412673392</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.0664782816748</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,10 +36126,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>753.9218057523894</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,19 +37791,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>349.2983329370937</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38019,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307421</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632068</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722744.94380681</v>
+        <v>721123.7853155269</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655641</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772119</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6942176.066904963</v>
+        <v>6942176.066904964</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -667,7 +667,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60.29416313398352</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>83.29829428998269</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>24.62703520776649</v>
       </c>
       <c r="E4" t="n">
-        <v>137.2470510215432</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -910,10 +910,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>269.9272239875384</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>12.43945598307531</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1135,22 +1135,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>190.6621226277881</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>176.9395761160119</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>195.1569564646393</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>177.427480216843</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>260.1675526731433</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>392.2414403954314</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475798</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8284742946031</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3009,10 +3009,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>187.5234134555191</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>198.9926249238804</v>
       </c>
       <c r="X41" t="n">
-        <v>327.7048106991456</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>221.774480175688</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>198.992624923879</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225728</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1869.900138843044</v>
+        <v>1664.352353473291</v>
       </c>
       <c r="C2" t="n">
-        <v>1431.757666026468</v>
+        <v>1226.209880656715</v>
       </c>
       <c r="D2" t="n">
-        <v>995.8478812009121</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="E2" t="n">
-        <v>562.0731363592072</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="F2" t="n">
-        <v>134.2057067684149</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="G2" t="n">
-        <v>134.2057067684149</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
         <v>508.557199136501</v>
@@ -4336,46 +4336,46 @@
         <v>508.557199136501</v>
       </c>
       <c r="L2" t="n">
-        <v>508.557199136501</v>
+        <v>1415.675781220842</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.044276549766</v>
+        <v>1415.675781220842</v>
       </c>
       <c r="N2" t="n">
-        <v>1214.044276549766</v>
+        <v>1415.675781220842</v>
       </c>
       <c r="O2" t="n">
-        <v>2121.162858634106</v>
+        <v>2322.794363305183</v>
       </c>
       <c r="P2" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
         <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3581.473710362991</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T2" t="n">
-        <v>3361.40648323603</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U2" t="n">
-        <v>3102.184180553047</v>
+        <v>3277.266792034028</v>
       </c>
       <c r="V2" t="n">
-        <v>3102.184180553047</v>
+        <v>2914.649841967855</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.32872596408</v>
+        <v>2509.794387378888</v>
       </c>
       <c r="X2" t="n">
-        <v>2278.186262543391</v>
+        <v>2090.651923958199</v>
       </c>
       <c r="Y2" t="n">
-        <v>1869.900138843044</v>
+        <v>2090.651923958199</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2508.057567691639</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>2212.390403001788</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>2129.00656461795</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>2001.885822700346</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>2027.949495860803</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>2352.507820827016</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>2352.507820827016</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L3" t="n">
-        <v>2352.507820827016</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M3" t="n">
-        <v>2352.507820827016</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N3" t="n">
-        <v>2352.507820827016</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.507820827016</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P3" t="n">
-        <v>3007.213867452739</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>3547.952806084815</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>3601.670146627538</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>3295.154955958108</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>3096.037438020107</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1757.959811693967</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C4" t="n">
-        <v>1757.959811693967</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D4" t="n">
-        <v>1757.959811693967</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E4" t="n">
-        <v>1619.326426823721</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F4" t="n">
-        <v>1442.619372785478</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G4" t="n">
-        <v>1277.028097811305</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>1137.12592350168</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>1135.045659441045</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>1409.80411401218</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.013995780141</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>2287.497862961055</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>2729.756666118699</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>3149.42591534448</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>3496.932809314822</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>3505.884215477151</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T4" t="n">
-        <v>3260.004769055606</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U4" t="n">
-        <v>2981.571768308711</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V4" t="n">
-        <v>2694.616260179142</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W4" t="n">
-        <v>2422.589855765434</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X4" t="n">
-        <v>2177.198101098846</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y4" t="n">
-        <v>1949.778430412954</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.92502191807</v>
+        <v>2098.543887687856</v>
       </c>
       <c r="C5" t="n">
-        <v>1643.92502191807</v>
+        <v>1660.401414871279</v>
       </c>
       <c r="D5" t="n">
-        <v>1208.015237092514</v>
+        <v>1224.491630045724</v>
       </c>
       <c r="E5" t="n">
-        <v>774.2404922508094</v>
+        <v>790.716885204019</v>
       </c>
       <c r="F5" t="n">
-        <v>346.3730626600172</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="G5" t="n">
-        <v>73.71930105644307</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
         <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>1342.907491094679</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="L5" t="n">
-        <v>2121.162858634106</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M5" t="n">
-        <v>2121.162858634106</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N5" t="n">
-        <v>2121.162858634106</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>2121.162858634106</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>2949.472733467503</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3495.971519426097</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179154</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179154</v>
+        <v>3348.841376182419</v>
       </c>
       <c r="V5" t="n">
-        <v>3302.50863411298</v>
+        <v>3348.841376182419</v>
       </c>
       <c r="W5" t="n">
-        <v>2897.653179524013</v>
+        <v>2943.985921593453</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.510716103324</v>
+        <v>2524.843458172764</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.224592402978</v>
+        <v>2524.843458172764</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
         <v>1078.630556435977</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
         <v>415.6008406959992</v>
@@ -4716,16 +4716,16 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
         <v>434.6406514194085</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1192.114716580755</v>
+        <v>1381.54630354028</v>
       </c>
       <c r="C8" t="n">
-        <v>1192.114716580755</v>
+        <v>943.4038307237034</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.114716580755</v>
+        <v>507.4940458981479</v>
       </c>
       <c r="E8" t="n">
-        <v>1192.114716580755</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="F8" t="n">
-        <v>764.247286989963</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G8" t="n">
-        <v>362.8494556132268</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>73.30251168358308</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>907.652803641761</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>1383.198341302822</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M8" t="n">
-        <v>1383.198341302822</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N8" t="n">
-        <v>1383.198341302822</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O8" t="n">
-        <v>2290.316923387163</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179154</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T8" t="n">
-        <v>3472.537581524823</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U8" t="n">
-        <v>3213.315278841839</v>
+        <v>3402.746865801364</v>
       </c>
       <c r="V8" t="n">
-        <v>2850.698328775666</v>
+        <v>3040.12991573519</v>
       </c>
       <c r="W8" t="n">
-        <v>2445.842874186699</v>
+        <v>2635.274461146224</v>
       </c>
       <c r="X8" t="n">
-        <v>2026.70041076601</v>
+        <v>2216.131997725535</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.414287065663</v>
+        <v>1807.845874025188</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O9" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
         <v>1078.630556435977</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.7985487605142</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C10" t="n">
-        <v>751.2368372437392</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D10" t="n">
-        <v>585.3588444452619</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E10" t="n">
-        <v>415.6008406959992</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F10" t="n">
-        <v>238.8937866577554</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G10" t="n">
-        <v>73.30251168358308</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
         <v>434.6406514194085</v>
@@ -4989,25 +4989,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.722952543698</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2425.843506122153</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U10" t="n">
-        <v>2147.410505375259</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V10" t="n">
-        <v>1860.454997245689</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W10" t="n">
-        <v>1588.428592831981</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X10" t="n">
-        <v>1343.036838165393</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y10" t="n">
-        <v>1115.617167479501</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2006.541971984243</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.399499167667</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D11" t="n">
-        <v>1132.489714342111</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E11" t="n">
-        <v>698.7149695004064</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F11" t="n">
-        <v>270.8475399096141</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71930105644307</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L11" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="M11" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N11" t="n">
-        <v>1383.198341302822</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O11" t="n">
-        <v>2290.316923387163</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>3118.62679822056</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179154</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.125584179154</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V11" t="n">
-        <v>3665.125584179154</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W11" t="n">
-        <v>3260.270129590187</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.127666169498</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y11" t="n">
-        <v>2432.841542469151</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358308</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358308</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L12" t="n">
-        <v>980.4210937679236</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M12" t="n">
-        <v>980.4210937679236</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N12" t="n">
-        <v>980.4210937679236</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
         <v>1736.542273162392</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1152.360672295464</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C13" t="n">
-        <v>979.7989607786893</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D13" t="n">
-        <v>813.920967980212</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E13" t="n">
-        <v>644.1629642309493</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F13" t="n">
-        <v>467.4559101927056</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G13" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
         <v>434.6406514194085</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.962121586383</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.962121586383</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T13" t="n">
-        <v>2444.082675164838</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U13" t="n">
-        <v>2375.972628910209</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.017120780639</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W13" t="n">
-        <v>1816.990716366931</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.598961700343</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y13" t="n">
-        <v>1344.179291014452</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1643.92502191807</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C14" t="n">
-        <v>1205.782549101493</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D14" t="n">
-        <v>769.8727642759377</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E14" t="n">
-        <v>336.0980194342329</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1383.198341302822</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>1383.198341302822</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>1383.198341302822</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
-        <v>2290.316923387163</v>
+        <v>2721.889967810443</v>
       </c>
       <c r="P14" t="n">
-        <v>3118.62679822056</v>
+        <v>3550.199842643839</v>
       </c>
       <c r="Q14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179154</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179154</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V14" t="n">
-        <v>3302.50863411298</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W14" t="n">
-        <v>2897.653179524013</v>
+        <v>3040.202902463227</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.510716103324</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y14" t="n">
-        <v>2070.224592402978</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
         <v>1078.630556435977</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.7985487605142</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C16" t="n">
-        <v>751.2368372437392</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D16" t="n">
-        <v>585.3588444452619</v>
+        <v>648.3296930060399</v>
       </c>
       <c r="E16" t="n">
-        <v>415.6008406959992</v>
+        <v>478.5716892567771</v>
       </c>
       <c r="F16" t="n">
-        <v>238.8937866577554</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30251168358308</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358308</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
         <v>434.6406514194085</v>
@@ -5463,25 +5463,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.722952543698</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.843506122153</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U16" t="n">
-        <v>2147.410505375259</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V16" t="n">
-        <v>1860.454997245689</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W16" t="n">
-        <v>1588.428592831981</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X16" t="n">
-        <v>1343.036838165393</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y16" t="n">
-        <v>1115.617167479501</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="17">
@@ -5542,7 +5542,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5597,13 +5597,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5834,10 +5834,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
         <v>1107.588885023173</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,19 +5992,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
         <v>1107.588885023173</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>885.0724125931612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>719.1944197946839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>549.4364160454211</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>372.7293620071773</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>207.138087033005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1249.452742828923</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436392</v>
@@ -6463,52 +6463,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176682</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.233352746989</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580385</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248062</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731287</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.00085993281</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183547</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145303</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.04201353898</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836977</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415433</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4429.488197668538</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4429.488197668538</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652941</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
         <v>1107.588885023173</v>
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2543.461783934675</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2499.524929691732</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C41" t="n">
-        <v>2061.382456875156</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D41" t="n">
-        <v>1625.4726720496</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E41" t="n">
-        <v>1191.697927207895</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F41" t="n">
-        <v>763.830497617103</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G41" t="n">
-        <v>362.4326662403668</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
         <v>508.557199136501</v>
@@ -7417,46 +7417,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M41" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N41" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O41" t="n">
-        <v>2250.026073179019</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>3665.125584179154</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X41" t="n">
-        <v>3334.110623876987</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y41" t="n">
-        <v>2925.82450017664</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>99.36618484404067</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
         <v>423.924509810253</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
         <v>415.6008406959992</v>
@@ -7560,16 +7560,16 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>159.8821968482729</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
         <v>434.6406514194085</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2210.394775134949</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1772.252302318372</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1336.342517492816</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>902.5677726511115</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>474.7003430603192</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358308</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
         <v>508.557199136501</v>
@@ -7654,46 +7654,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M44" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N44" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O44" t="n">
-        <v>2250.026073179019</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3464.122932740892</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>3044.980469320203</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2636.694345619856</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2508.057567691638</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>2212.390403001787</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>2129.006564617949</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>2001.885822700345</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>2027.949495860803</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>2352.507820827015</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L45" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M45" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N45" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O45" t="n">
-        <v>3007.213867452739</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P45" t="n">
-        <v>3007.213867452739</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>3547.952806084814</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>3601.670146627537</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>3295.154955958107</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>3096.037438020106</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1917.20118039597</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>1744.639468879195</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>1578.761476080718</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>1409.003472331455</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>1232.296418293211</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>1066.705143319039</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>1048.465974276355</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>1135.045659441044</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>1409.80411401218</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>1828.013995780141</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>2287.497862961054</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>2729.756666118698</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>3149.42591534448</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>3496.932809314821</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>3665.125584179154</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>3665.125584179154</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>3419.246137757609</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>3140.813137010714</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>2853.857628881145</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>2581.831224467437</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>2336.439469800849</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>2109.019799114958</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
-        <v>712.6132095083483</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458549</v>
+        <v>633.0084547094152</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>712.613209508349</v>
       </c>
       <c r="L5" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>480.349027940466</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>40.69782849307421</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>763.7587670651194</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>40.69782849307421</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,13 +9482,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9892,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523894</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10430,19 +10430,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>225.9446898772324</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22603,10 +22603,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>173.3317853661706</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22707,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>139.592177662726</v>
       </c>
       <c r="E4" t="n">
-        <v>30.81337269022691</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>127.4566290754304</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>244.190623673078</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -23023,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>27.20443222790371</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>79.69050354014132</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2268965983294</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23311,19 +23311,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>237.5235585696394</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>163.421202621741</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>22.70959839105097</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.28436272291272</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.67467827192613</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>81.78272691405232</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25690,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>201.8142751191967</v>
       </c>
       <c r="X41" t="n">
-        <v>87.24622808733676</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>201.814275119198</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>529384.1365231383</v>
+        <v>529384.1365231384</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>529384.1365231383</v>
+        <v>529384.1365231385</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>529384.1365231383</v>
+        <v>529384.1365231385</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672010.8533514002</v>
+        <v>672010.8533514004</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672010.8533514002</v>
+        <v>672010.8533514004</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>529384.1365231384</v>
+        <v>529384.1365231385</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>529384.1365231383</v>
+        <v>529384.1365231385</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207519.0049820329</v>
+        <v>207519.0049820331</v>
       </c>
       <c r="C2" t="n">
-        <v>207519.004982033</v>
+        <v>207519.0049820331</v>
       </c>
       <c r="D2" t="n">
         <v>207519.004982033</v>
@@ -26340,7 +26340,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="K2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="L2" t="n">
         <v>263428.7920686761</v>
@@ -26355,7 +26355,7 @@
         <v>207519.004982033</v>
       </c>
       <c r="P2" t="n">
-        <v>207519.004982033</v>
+        <v>207519.0049820331</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527209</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>11221.82151213932</v>
       </c>
       <c r="F4" t="n">
-        <v>11221.82151213932</v>
+        <v>11221.82151213933</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26496,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200107.2956963472</v>
+        <v>-200410.068971163</v>
       </c>
       <c r="C6" t="n">
-        <v>106959.6745903705</v>
+        <v>106656.9013155547</v>
       </c>
       <c r="D6" t="n">
-        <v>106959.6745903705</v>
+        <v>106656.9013155547</v>
       </c>
       <c r="E6" t="n">
-        <v>140587.2745903705</v>
+        <v>140284.5013155547</v>
       </c>
       <c r="F6" t="n">
-        <v>140587.2745903705</v>
+        <v>140284.5013155547</v>
       </c>
       <c r="G6" t="n">
-        <v>72252.30425711887</v>
+        <v>72229.07991773638</v>
       </c>
       <c r="H6" t="n">
-        <v>171465.3478923909</v>
+        <v>171442.1235530083</v>
       </c>
       <c r="I6" t="n">
-        <v>171465.3478923909</v>
+        <v>171442.1235530083</v>
       </c>
       <c r="J6" t="n">
-        <v>-68274.18169435172</v>
+        <v>-68297.40603373441</v>
       </c>
       <c r="K6" t="n">
-        <v>171465.347892391</v>
+        <v>171442.1235530082</v>
       </c>
       <c r="L6" t="n">
-        <v>171465.3478923909</v>
+        <v>171442.1235530083</v>
       </c>
       <c r="M6" t="n">
-        <v>171465.3478923909</v>
+        <v>171442.1235530083</v>
       </c>
       <c r="N6" t="n">
-        <v>171465.3478923909</v>
+        <v>171442.1235530083</v>
       </c>
       <c r="O6" t="n">
-        <v>140587.2745903705</v>
+        <v>140284.5013155547</v>
       </c>
       <c r="P6" t="n">
-        <v>140587.2745903705</v>
+        <v>140284.5013155547</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399568</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M2" t="n">
-        <v>712.6132095083483</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458551</v>
+        <v>633.0084547094152</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>712.613209508349</v>
       </c>
       <c r="L5" t="n">
-        <v>786.1165328681086</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>480.349027940466</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447884</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458551</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>40.69782849307421</v>
+        <v>309.4863362707125</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>763.7587670651194</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>40.69782849307421</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,13 +36202,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081364</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36612,10 +36612,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523894</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37150,19 +37150,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,16 +37794,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
-        <v>40.69782849307421</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
